--- a/data/trans_orig/P14A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EE72AD-0356-4783-A68F-3D750C817284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{024E7E52-6A79-4382-9B40-7BFC3CFEB994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E81FB76-A552-487A-8B10-DE688E656186}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6AA7216-72A5-4159-A552-29743EA281FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="200">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>20,38%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>80,47%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>71,78%</t>
+    <t>57,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,13 +102,13 @@
     <t>79,62%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>19,53%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>28,22%</t>
+    <t>42,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -150,37 +150,37 @@
     <t>86,12%</t>
   </si>
   <si>
-    <t>31,57%</t>
+    <t>43,18%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>56,24%</t>
+    <t>55,76%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>64,35%</t>
+    <t>62,6%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>56,82%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>43,76%</t>
+    <t>44,24%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>35,65%</t>
+    <t>37,4%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -189,7 +189,7 @@
     <t>67,04%</t>
   </si>
   <si>
-    <t>33,89%</t>
+    <t>31,82%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -198,16 +198,16 @@
     <t>76,88%</t>
   </si>
   <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>66,11%</t>
+    <t>68,18%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -216,10 +216,10 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -228,49 +228,55 @@
     <t>86,04%</t>
   </si>
   <si>
-    <t>95,55%</t>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -279,352 +285,358 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>90,24%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
     <t>3,65%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>87,81%</t>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2015 (Tasa respuesta: 4,05%)</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2015 (Tasa respuesta: 4,05%)</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEBFBC4-DE64-4597-A4F8-8BF91719262C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF94F4-F935-4B08-A3EF-A6B78C835CB2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1783,10 +1795,10 @@
         <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -1795,13 +1807,13 @@
         <v>22954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -1810,13 +1822,13 @@
         <v>42505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,13 +1843,13 @@
         <v>3171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1846,13 +1858,13 @@
         <v>3069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1861,13 +1873,13 @@
         <v>6240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,7 +1935,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1935,13 +1947,13 @@
         <v>81732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -1950,10 +1962,10 @@
         <v>97567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -1965,13 +1977,13 @@
         <v>179299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1998,13 @@
         <v>3100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2001,13 +2013,13 @@
         <v>2187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2016,13 +2028,13 @@
         <v>5287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,13 +2102,13 @@
         <v>118812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -2105,13 +2117,13 @@
         <v>136596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -2120,13 +2132,13 @@
         <v>255408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2153,13 @@
         <v>12377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2156,13 +2168,13 @@
         <v>11087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -2171,13 +2183,13 @@
         <v>23464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,7 +2245,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F21609-FDFC-45E2-919C-0CFD7B6A2256}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BA28D-8554-434E-A302-0C7200ACB3C2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2272,7 +2284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2394,7 +2406,7 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2409,13 +2421,13 @@
         <v>1000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,7 +2457,7 @@
         <v>1920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2460,10 +2472,10 @@
         <v>4073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -2532,13 +2544,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2550,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>24</v>
@@ -2565,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>24</v>
@@ -2581,13 +2593,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2602,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2617,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2642,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2683,7 +2695,7 @@
         <v>934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -2698,10 +2710,10 @@
         <v>4750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2713,13 +2725,13 @@
         <v>5685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2746,7 @@
         <v>1019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -2749,13 +2761,13 @@
         <v>2392</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -2764,13 +2776,13 @@
         <v>3411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,10 +2850,10 @@
         <v>10368</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2853,10 +2865,10 @@
         <v>14742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2868,13 +2880,13 @@
         <v>25110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2901,13 @@
         <v>2100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2904,13 +2916,13 @@
         <v>1002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2919,13 +2931,13 @@
         <v>3102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +3008,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>24</v>
@@ -3008,13 +3020,13 @@
         <v>13360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>36</v>
@@ -3023,13 +3035,13 @@
         <v>42014</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3062,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3059,13 +3071,13 @@
         <v>3392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3074,13 +3086,13 @@
         <v>3392</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3148,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3148,10 +3160,10 @@
         <v>80418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3163,13 +3175,13 @@
         <v>107186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>175</v>
@@ -3178,13 +3190,13 @@
         <v>187604</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3211,13 @@
         <v>1912</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3214,13 +3226,13 @@
         <v>5895</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3229,13 +3241,13 @@
         <v>7807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3315,13 @@
         <v>120373</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -3318,13 +3330,13 @@
         <v>144928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -3333,13 +3345,13 @@
         <v>265301</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3366,13 @@
         <v>7184</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -3369,13 +3381,13 @@
         <v>14600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3384,13 +3396,13 @@
         <v>21784</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3458,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{024E7E52-6A79-4382-9B40-7BFC3CFEB994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4841FB8A-F231-4E56-B9C7-70CCBA4D29F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6AA7216-72A5-4159-A552-29743EA281FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3776D2C-F820-4A3A-ABD1-49B3B0BCD1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +90,7 @@
     <t>28,79%</t>
   </si>
   <si>
-    <t>57,95%</t>
+    <t>71,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>71,21%</t>
   </si>
   <si>
-    <t>42,05%</t>
+    <t>28,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -150,37 +150,37 @@
     <t>86,12%</t>
   </si>
   <si>
-    <t>43,18%</t>
+    <t>33,49%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>55,76%</t>
+    <t>55,23%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>62,6%</t>
+    <t>64,19%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>56,82%</t>
+    <t>66,51%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>44,24%</t>
+    <t>44,77%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>37,4%</t>
+    <t>35,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -189,7 +189,10 @@
     <t>67,04%</t>
   </si>
   <si>
-    <t>31,82%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -198,16 +201,19 @@
     <t>76,88%</t>
   </si>
   <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>32,96%</t>
   </si>
   <si>
-    <t>68,18%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -216,10 +222,10 @@
     <t>23,12%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -228,55 +234,55 @@
     <t>86,04%</t>
   </si>
   <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -285,7 +291,7 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>90,77%</t>
+    <t>89,87%</t>
   </si>
   <si>
     <t>98,86%</t>
@@ -294,16 +300,16 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>93,37%</t>
+    <t>93,46%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>3,65%</t>
@@ -312,82 +318,82 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>9,23%</t>
+    <t>10,13%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2015 (Tasa respuesta: 4,05%)</t>
+    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2016 (Tasa respuesta: 4,05%)</t>
   </si>
   <si>
     <t>34,26%</t>
@@ -396,7 +402,7 @@
     <t>19,72%</t>
   </si>
   <si>
-    <t>77,31%</t>
+    <t>80,46%</t>
   </si>
   <si>
     <t>65,74%</t>
@@ -405,7 +411,7 @@
     <t>80,28%</t>
   </si>
   <si>
-    <t>22,69%</t>
+    <t>19,54%</t>
   </si>
   <si>
     <t>—%</t>
@@ -420,79 +426,73 @@
     <t>47,84%</t>
   </si>
   <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>62,5%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>52,16%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>76,71%</t>
   </si>
   <si>
     <t>37,5%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>51,1%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>67,8%</t>
   </si>
   <si>
     <t>89,01%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>51,74%</t>
+    <t>48,9%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>32,64%</t>
+    <t>32,2%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -501,16 +501,16 @@
     <t>79,75%</t>
   </si>
   <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>81,99%</t>
+    <t>80,8%</t>
   </si>
   <si>
     <t>97,65%</t>
@@ -522,10 +522,10 @@
     <t>20,25%</t>
   </si>
   <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>7,47%</t>
@@ -534,109 +534,109 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>18,01%</t>
+    <t>19,2%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>92,87%</t>
+    <t>92,24%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>7,13%</t>
+    <t>7,76%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AF94F4-F935-4B08-A3EF-A6B78C835CB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69AED73-5FC5-44B3-8196-E69FBAB43BB5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1643,7 +1643,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>24</v>
@@ -1667,13 +1667,13 @@
         <v>13928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,13 +1688,13 @@
         <v>4189</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>30</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1718,13 +1718,13 @@
         <v>4189</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1792,13 +1792,13 @@
         <v>19551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -1807,13 +1807,13 @@
         <v>22954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -1822,13 +1822,13 @@
         <v>42505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>3171</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1858,13 +1858,13 @@
         <v>3069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -1873,13 +1873,13 @@
         <v>6240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1947,13 +1947,13 @@
         <v>81732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H19" s="7">
         <v>91</v>
@@ -1962,10 +1962,10 @@
         <v>97567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -1977,13 +1977,13 @@
         <v>179299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1998,13 @@
         <v>3100</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2013,13 +2013,13 @@
         <v>2187</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -2028,13 +2028,13 @@
         <v>5287</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,13 +2102,13 @@
         <v>118812</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>128</v>
@@ -2117,13 +2117,13 @@
         <v>136596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -2132,13 +2132,13 @@
         <v>255408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,13 +2153,13 @@
         <v>12377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2168,13 +2168,13 @@
         <v>11087</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -2183,13 +2183,13 @@
         <v>23464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747BA28D-8554-434E-A302-0C7200ACB3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2464E8-D08F-4FF3-BFF7-3A9D19EBEAC9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2284,7 +2284,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2406,7 +2406,7 @@
         <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2421,13 +2421,13 @@
         <v>1000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,7 +2457,7 @@
         <v>1920</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2472,10 +2472,10 @@
         <v>4073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>13</v>
@@ -2544,13 +2544,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2562,7 +2562,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>24</v>
@@ -2577,7 +2577,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>24</v>
@@ -2593,13 +2593,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2642,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2695,7 +2695,7 @@
         <v>934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -2710,10 +2710,10 @@
         <v>4750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2725,13 +2725,13 @@
         <v>5685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,7 +2746,7 @@
         <v>1019</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -2761,7 +2761,7 @@
         <v>2392</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
